--- a/data/result с верными входными данными.xlsx
+++ b/data/result с верными входными данными.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\OneDrive - riverw\ДАША\Другое\альтернативный код проект\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://riverw-my.sharepoint.com/personal/7963_365hub_club/Documents/ДАША/Другое/альтернативный код проект/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390050B8-D583-4EE9-BA45-9A79754A67F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{390050B8-D583-4EE9-BA45-9A79754A67F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A01EA8F6-B2FE-4F07-A009-478EF9CE4D1F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{313C0AA6-9A72-4474-91A1-AFEFE7A83AF4}"/>
   </bookViews>
@@ -63,13 +63,13 @@
     <t>ошибка робастного метода maxiter=5</t>
   </si>
   <si>
-    <t>Здесь точность 0.0001</t>
+    <t>Кросс валидация робаста maxiter=50</t>
   </si>
   <si>
-    <t>тут ошибка 0.01</t>
+    <t>eps 0.0001</t>
   </si>
   <si>
-    <t>Кросс валидация робаста maxiter=50</t>
+    <t xml:space="preserve"> eps  0.01</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L23" sqref="I23:L23"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1572,12 +1572,12 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/result с верными входными данными.xlsx
+++ b/data/result с верными входными данными.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://riverw-my.sharepoint.com/personal/7963_365hub_club/Documents/ДАША/Другое/альтернативный код проект/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voronkina.2018\Desktop\проектная деятельность\BioProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{390050B8-D583-4EE9-BA45-9A79754A67F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A01EA8F6-B2FE-4F07-A009-478EF9CE4D1F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{313C0AA6-9A72-4474-91A1-AFEFE7A83AF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>components</t>
   </si>
@@ -71,11 +70,20 @@
   <si>
     <t xml:space="preserve"> eps  0.01</t>
   </si>
+  <si>
+    <t>Крос валидация робаста мин библиотекой</t>
+  </si>
+  <si>
+    <t>ошибка робаста нелдера мида</t>
+  </si>
+  <si>
+    <t>ошибка робаста пауэла</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +158,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="3" xr:uid="{A65DA49A-FD7E-4D9D-8E1A-60B3644D295B}"/>
+    <cellStyle name="Обычный 2" xfId="3"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -463,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F75EB39-0D95-4D59-9ADA-C2B466165950}">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,13 +487,15 @@
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,20 +517,29 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -542,20 +561,23 @@
       <c r="G2">
         <v>33.089424217261197</v>
       </c>
-      <c r="I2">
+      <c r="H2">
+        <v>11307.5005039967</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>52.3067893437617</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>47.069341864734298</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>47.027071532082203</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -577,20 +599,23 @@
       <c r="G3">
         <v>26.690106651969401</v>
       </c>
-      <c r="I3">
+      <c r="H3">
+        <v>9858.3784664729101</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>57.251875456711304</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>52.808541051551003</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>52.873830872613098</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -612,20 +637,23 @@
       <c r="G4">
         <v>20.784284741380599</v>
       </c>
-      <c r="I4">
+      <c r="H4">
+        <v>7262.49830737917</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>64.525236952419306</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>52.726249491725198</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>52.738522585767797</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -647,20 +675,23 @@
       <c r="G5">
         <v>17.391269485408898</v>
       </c>
-      <c r="I5">
+      <c r="H5">
+        <v>6026.5474538861699</v>
+      </c>
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>69.213238271309393</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>56.111577650758399</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>56.181671838320597</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -682,20 +713,23 @@
       <c r="G6">
         <v>14.269966075425099</v>
       </c>
-      <c r="I6">
+      <c r="H6">
+        <v>3564.32190949704</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>73.491189397798394</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>61.454217305551602</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>61.540098593273299</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -717,20 +751,23 @@
       <c r="G7">
         <v>12.015997257778899</v>
       </c>
-      <c r="I7">
+      <c r="H7">
+        <v>3243.3508827831301</v>
+      </c>
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>78.297300188981097</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>65.269420756933101</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>65.382391686449395</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -752,20 +789,23 @@
       <c r="G8">
         <v>10.382906167030299</v>
       </c>
-      <c r="I8">
+      <c r="H8">
+        <v>1662.73064796877</v>
+      </c>
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>82.540285579534597</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>70.829594380186293</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>70.856550817599597</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -787,20 +827,23 @@
       <c r="G9">
         <v>7.6998708381034504</v>
       </c>
-      <c r="I9">
+      <c r="H9">
+        <v>808.17895438261405</v>
+      </c>
+      <c r="K9">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>88.664790621994101</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>73.256588759554404</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>73.326415326337695</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -822,20 +865,23 @@
       <c r="G10">
         <v>6.0267642482385302</v>
       </c>
-      <c r="I10">
+      <c r="H10">
+        <v>732.59020341220105</v>
+      </c>
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>92.347005715284695</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>76.956689179021694</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>76.8439676862547</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -857,20 +903,23 @@
       <c r="G11">
         <v>4.55737558088612</v>
       </c>
-      <c r="I11">
+      <c r="H11">
+        <v>411.29433275637098</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>95.661881556249995</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>79.774343641837405</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>79.636785681570501</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -892,20 +941,23 @@
       <c r="G12">
         <v>3.7571792660640999</v>
       </c>
-      <c r="I12">
+      <c r="H12">
+        <v>230.21931380003599</v>
+      </c>
+      <c r="K12">
         <v>11</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>96.981580832502601</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>83.462898664927806</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>83.232222244870698</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -927,20 +979,23 @@
       <c r="G13">
         <v>3.0614048773364799</v>
       </c>
-      <c r="I13">
+      <c r="H13">
+        <v>223.069907436183</v>
+      </c>
+      <c r="K13">
         <v>12</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>98.198918066923298</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>85.923055087886098</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>85.648312441640101</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -962,20 +1017,23 @@
       <c r="G14">
         <v>2.42607329285384</v>
       </c>
-      <c r="I14">
+      <c r="H14">
+        <v>146.470933612029</v>
+      </c>
+      <c r="K14">
         <v>13</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>99.177726825910398</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>88.123249332737004</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>87.822223112925798</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -997,20 +1055,23 @@
       <c r="G15">
         <v>1.7106041304289801</v>
       </c>
-      <c r="I15">
+      <c r="H15">
+        <v>59.916642037875</v>
+      </c>
+      <c r="K15">
         <v>14</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>99.632733570209894</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>91.709152626907795</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>91.336461399896393</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1032,20 +1093,23 @@
       <c r="G16">
         <v>1.2403074647835799</v>
       </c>
-      <c r="I16">
+      <c r="H16">
+        <v>47.106533226354699</v>
+      </c>
+      <c r="K16">
         <v>15</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>99.865243049179995</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>95.243736627551797</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>94.861033268176698</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1067,20 +1131,23 @@
       <c r="G17">
         <v>0.93514555312377201</v>
       </c>
-      <c r="I17">
+      <c r="H17">
+        <v>13.467141455669999</v>
+      </c>
+      <c r="K17">
         <v>16</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>100.13329611178</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>97.870845288726699</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>97.474273021823606</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1102,20 +1169,23 @@
       <c r="G18">
         <v>0.64078971156279996</v>
       </c>
-      <c r="I18">
+      <c r="H18">
+        <v>10.518039275152301</v>
+      </c>
+      <c r="K18">
         <v>17</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>100.30935072931599</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>99.446493187237095</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>99.048305446906497</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1137,20 +1207,23 @@
       <c r="G19">
         <v>0.48181003231195302</v>
       </c>
-      <c r="I19">
+      <c r="H19">
+        <v>5.3842426922270903</v>
+      </c>
+      <c r="K19">
         <v>18</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>100.40934949804399</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>100.804783408695</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>100.412914847691</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1172,20 +1245,23 @@
       <c r="G20">
         <v>0.36046092701341398</v>
       </c>
-      <c r="I20">
+      <c r="H20">
+        <v>3.7673366414513398</v>
+      </c>
+      <c r="K20">
         <v>19</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>100.464608300674</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>102.035228851661</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>101.664244905057</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1207,20 +1283,23 @@
       <c r="G21">
         <v>0.25989284752383701</v>
       </c>
-      <c r="I21">
+      <c r="H21">
+        <v>1.8977709415683599</v>
+      </c>
+      <c r="K21">
         <v>20</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>100.512155053201</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>102.94601501624599</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>102.590883313021</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1242,20 +1321,23 @@
       <c r="G22">
         <v>0.178743343703162</v>
       </c>
-      <c r="I22">
+      <c r="H22">
+        <v>1.0916201403377199</v>
+      </c>
+      <c r="K22">
         <v>21</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>100.53429611721199</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>103.680989555401</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>103.343936024548</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1277,20 +1359,23 @@
       <c r="G23">
         <v>0.13146296455447401</v>
       </c>
-      <c r="I23">
+      <c r="H23">
+        <v>0.196944895149257</v>
+      </c>
+      <c r="K23">
         <v>22</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>100.549887663706</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>103.903047804322</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>103.57698594342401</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1312,20 +1397,23 @@
       <c r="G24">
         <v>9.8898847731669307E-2</v>
       </c>
-      <c r="I24">
+      <c r="H24">
+        <v>0.24591533041958999</v>
+      </c>
+      <c r="K24">
         <v>23</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>100.562608826239</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>103.84546570214501</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>103.54521236754201</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1347,20 +1435,23 @@
       <c r="G25">
         <v>7.4412855532186795E-2</v>
       </c>
-      <c r="I25">
+      <c r="H25">
+        <v>0.12535490609443001</v>
+      </c>
+      <c r="K25">
         <v>24</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>100.569572909638</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>103.662240041708</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>103.35813502770399</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1382,20 +1473,20 @@
       <c r="G26">
         <v>5.3541147092376097E-2</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>25</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>100.577532930584</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>103.58528689200099</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>103.291024437196</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1417,20 +1508,20 @@
       <c r="G27">
         <v>3.9042036263233201E-2</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>26</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>100.585106741091</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>103.577096485792</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>103.27916870233901</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1452,20 +1543,20 @@
       <c r="G28">
         <v>2.48401281908842E-2</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>27</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>100.591581663429</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>103.58386806397399</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>103.286400079922</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1487,20 +1578,20 @@
       <c r="G29">
         <v>1.7790580912869201E-2</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>28</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>100.59405137290899</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>103.513499686866</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>103.21162877314801</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1522,20 +1613,20 @@
       <c r="G30">
         <v>1.2645252651630299E-2</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>29</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>100.59528513393801</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>103.588074806132</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>103.29327535454</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1557,20 +1648,20 @@
       <c r="G31">
         <v>9.5124275629095909E-3</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>30</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>100.595437994085</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>103.614043078995</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>103.31200038090201</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>

--- a/data/result с верными входными данными.xlsx
+++ b/data/result с верными входными данными.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voronkina.2018\Desktop\проектная деятельность\BioProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://riverw-my.sharepoint.com/personal/7963_365hub_club/Documents/ДАША/Другое/альтернативный код проект/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_43AB77CB8C22618027FAA901E6906528479AF978" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7CBF03D8-7463-4728-841B-7D619D1F0EEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -18,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -83,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +150,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="3"/>
+    <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -471,11 +463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +480,7 @@
     <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.5703125" bestFit="1" customWidth="1"/>
